--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.26339533333333</v>
+        <v>14.29746233333333</v>
       </c>
       <c r="H2">
-        <v>45.790186</v>
+        <v>42.892387</v>
       </c>
       <c r="I2">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041602</v>
       </c>
       <c r="J2">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041601</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N2">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O2">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P2">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q2">
-        <v>19.28118906252356</v>
+        <v>10.029269497888</v>
       </c>
       <c r="R2">
-        <v>173.530701562712</v>
+        <v>90.263425480992</v>
       </c>
       <c r="S2">
-        <v>0.0005534240199619462</v>
+        <v>0.000213724671729799</v>
       </c>
       <c r="T2">
-        <v>0.0005534240199619464</v>
+        <v>0.000213724671729799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.26339533333333</v>
+        <v>14.29746233333333</v>
       </c>
       <c r="H3">
-        <v>45.790186</v>
+        <v>42.892387</v>
       </c>
       <c r="I3">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041602</v>
       </c>
       <c r="J3">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.459959</v>
       </c>
       <c r="O3">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P3">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q3">
-        <v>32.86696935137488</v>
+        <v>30.78700682579256</v>
       </c>
       <c r="R3">
-        <v>295.802724162374</v>
+        <v>277.083061432133</v>
       </c>
       <c r="S3">
-        <v>0.0009433738885823319</v>
+        <v>0.000656073997091336</v>
       </c>
       <c r="T3">
-        <v>0.0009433738885823321</v>
+        <v>0.0006560739970913358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.26339533333333</v>
+        <v>14.29746233333333</v>
       </c>
       <c r="H4">
-        <v>45.790186</v>
+        <v>42.892387</v>
       </c>
       <c r="I4">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041602</v>
       </c>
       <c r="J4">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041601</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N4">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O4">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P4">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q4">
-        <v>1778.190527112414</v>
+        <v>3484.033734963435</v>
       </c>
       <c r="R4">
-        <v>16003.71474401172</v>
+        <v>31356.30361467091</v>
       </c>
       <c r="S4">
-        <v>0.05103903844216569</v>
+        <v>0.07424508499421731</v>
       </c>
       <c r="T4">
-        <v>0.0510390384421657</v>
+        <v>0.07424508499421728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.26339533333333</v>
+        <v>14.29746233333333</v>
       </c>
       <c r="H5">
-        <v>45.790186</v>
+        <v>42.892387</v>
       </c>
       <c r="I5">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041602</v>
       </c>
       <c r="J5">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041601</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N5">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O5">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P5">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q5">
-        <v>11.51397788428911</v>
+        <v>12.69651828602067</v>
       </c>
       <c r="R5">
-        <v>103.625800958602</v>
+        <v>114.268664574186</v>
       </c>
       <c r="S5">
-        <v>0.0003304833486053807</v>
+        <v>0.0002705639930567813</v>
       </c>
       <c r="T5">
-        <v>0.0003304833486053808</v>
+        <v>0.0002705639930567813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.26339533333333</v>
+        <v>14.29746233333333</v>
       </c>
       <c r="H6">
-        <v>45.790186</v>
+        <v>42.892387</v>
       </c>
       <c r="I6">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041602</v>
       </c>
       <c r="J6">
-        <v>0.1360732787676056</v>
+        <v>0.1492463349041601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N6">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O6">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P6">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q6">
-        <v>2898.914848733304</v>
+        <v>3466.004825593932</v>
       </c>
       <c r="R6">
-        <v>26090.23363859973</v>
+        <v>31194.04343034539</v>
       </c>
       <c r="S6">
-        <v>0.08320695906829022</v>
+        <v>0.07386088724806496</v>
       </c>
       <c r="T6">
-        <v>0.08320695906829023</v>
+        <v>0.07386088724806493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>212.093734</v>
       </c>
       <c r="I7">
-        <v>0.630272386127551</v>
+        <v>0.7379913935691633</v>
       </c>
       <c r="J7">
-        <v>0.6302723861275512</v>
+        <v>0.7379913935691632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N7">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O7">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P7">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q7">
-        <v>89.30776966554755</v>
+        <v>49.592605258816</v>
       </c>
       <c r="R7">
-        <v>803.7699269899281</v>
+        <v>446.333447329344</v>
       </c>
       <c r="S7">
-        <v>0.002563382618254045</v>
+        <v>0.001056823059884667</v>
       </c>
       <c r="T7">
-        <v>0.002563382618254046</v>
+        <v>0.001056823059884667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>212.093734</v>
       </c>
       <c r="I8">
-        <v>0.630272386127551</v>
+        <v>0.7379913935691633</v>
       </c>
       <c r="J8">
-        <v>0.6302723861275512</v>
+        <v>0.7379913935691632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.459959</v>
       </c>
       <c r="O8">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P8">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q8">
         <v>152.2352028663229</v>
@@ -948,10 +948,10 @@
         <v>1370.116825796906</v>
       </c>
       <c r="S8">
-        <v>0.004369575842900633</v>
+        <v>0.003244146422147282</v>
       </c>
       <c r="T8">
-        <v>0.004369575842900634</v>
+        <v>0.003244146422147281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>212.093734</v>
       </c>
       <c r="I9">
-        <v>0.630272386127551</v>
+        <v>0.7379913935691633</v>
       </c>
       <c r="J9">
-        <v>0.6302723861275512</v>
+        <v>0.7379913935691632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N9">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O9">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P9">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q9">
-        <v>8236.32969428646</v>
+        <v>17227.80604936632</v>
       </c>
       <c r="R9">
-        <v>74126.96724857813</v>
+        <v>155050.2544442969</v>
       </c>
       <c r="S9">
-        <v>0.2364056840251416</v>
+        <v>0.3671261594177754</v>
       </c>
       <c r="T9">
-        <v>0.2364056840251417</v>
+        <v>0.3671261594177753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>212.093734</v>
       </c>
       <c r="I10">
-        <v>0.630272386127551</v>
+        <v>0.7379913935691633</v>
       </c>
       <c r="J10">
-        <v>0.6302723861275512</v>
+        <v>0.7379913935691632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N10">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O10">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P10">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q10">
-        <v>53.33113437609312</v>
+        <v>62.78158340969467</v>
       </c>
       <c r="R10">
-        <v>479.9802093848381</v>
+        <v>565.034250687252</v>
       </c>
       <c r="S10">
-        <v>0.001530752625257711</v>
+        <v>0.001337881418755334</v>
       </c>
       <c r="T10">
-        <v>0.001530752625257712</v>
+        <v>0.001337881418755333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>212.093734</v>
       </c>
       <c r="I11">
-        <v>0.630272386127551</v>
+        <v>0.7379913935691633</v>
       </c>
       <c r="J11">
-        <v>0.6302723861275512</v>
+        <v>0.7379913935691632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N11">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O11">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P11">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q11">
-        <v>13427.36792586716</v>
+        <v>17138.6569258138</v>
       </c>
       <c r="R11">
-        <v>120846.3113328045</v>
+        <v>154247.9123323242</v>
       </c>
       <c r="S11">
-        <v>0.385402991015997</v>
+        <v>0.3652263832506006</v>
       </c>
       <c r="T11">
-        <v>0.3854029910159971</v>
+        <v>0.3652263832506005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.988909666666666</v>
+        <v>3.216815</v>
       </c>
       <c r="H12">
-        <v>14.966729</v>
+        <v>9.650444999999999</v>
       </c>
       <c r="I12">
-        <v>0.04447616542671843</v>
+        <v>0.03357923508533526</v>
       </c>
       <c r="J12">
-        <v>0.04447616542671844</v>
+        <v>0.03357923508533525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N12">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O12">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P12">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q12">
-        <v>6.30214368416311</v>
+        <v>2.25650565168</v>
       </c>
       <c r="R12">
-        <v>56.71929315746799</v>
+        <v>20.30855086512</v>
       </c>
       <c r="S12">
-        <v>0.0001808891391893678</v>
+        <v>4.808634664402054E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001808891391893678</v>
+        <v>4.808634664402053E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.988909666666666</v>
+        <v>3.216815</v>
       </c>
       <c r="H13">
-        <v>14.966729</v>
+        <v>9.650444999999999</v>
       </c>
       <c r="I13">
-        <v>0.04447616542671843</v>
+        <v>0.03357923508533526</v>
       </c>
       <c r="J13">
-        <v>0.04447616542671844</v>
+        <v>0.03357923508533525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.459959</v>
       </c>
       <c r="O13">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P13">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q13">
-        <v>10.74271730045678</v>
+        <v>6.926831003528334</v>
       </c>
       <c r="R13">
-        <v>96.68445570411099</v>
+        <v>62.341479031755</v>
       </c>
       <c r="S13">
-        <v>0.0003083460140582953</v>
+        <v>0.000147611417029789</v>
       </c>
       <c r="T13">
-        <v>0.0003083460140582954</v>
+        <v>0.0001476114170297889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.988909666666666</v>
+        <v>3.216815</v>
       </c>
       <c r="H14">
-        <v>14.966729</v>
+        <v>9.650444999999999</v>
       </c>
       <c r="I14">
-        <v>0.04447616542671843</v>
+        <v>0.03357923508533526</v>
       </c>
       <c r="J14">
-        <v>0.04447616542671844</v>
+        <v>0.03357923508533525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N14">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O14">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P14">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q14">
-        <v>581.2096008882481</v>
+        <v>783.8798045305616</v>
       </c>
       <c r="R14">
-        <v>5230.886407994233</v>
+        <v>7054.918240775054</v>
       </c>
       <c r="S14">
-        <v>0.01668234011507348</v>
+        <v>0.01670455200492851</v>
       </c>
       <c r="T14">
-        <v>0.01668234011507348</v>
+        <v>0.0167045520049285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.988909666666666</v>
+        <v>3.216815</v>
       </c>
       <c r="H15">
-        <v>14.966729</v>
+        <v>9.650444999999999</v>
       </c>
       <c r="I15">
-        <v>0.04447616542671843</v>
+        <v>0.03357923508533526</v>
       </c>
       <c r="J15">
-        <v>0.04447616542671844</v>
+        <v>0.03357923508533525</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N15">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O15">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P15">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q15">
-        <v>3.763395647839222</v>
+        <v>2.85661535719</v>
       </c>
       <c r="R15">
-        <v>33.870560830553</v>
+        <v>25.70953821471</v>
       </c>
       <c r="S15">
-        <v>0.0001080199743584632</v>
+        <v>6.087474063811953E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001080199743584632</v>
+        <v>6.087474063811951E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.988909666666666</v>
+        <v>3.216815</v>
       </c>
       <c r="H16">
-        <v>14.966729</v>
+        <v>9.650444999999999</v>
       </c>
       <c r="I16">
-        <v>0.04447616542671843</v>
+        <v>0.03357923508533526</v>
       </c>
       <c r="J16">
-        <v>0.04447616542671844</v>
+        <v>0.03357923508533525</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N16">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O16">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P16">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q16">
-        <v>947.5234045799103</v>
+        <v>779.8234437064283</v>
       </c>
       <c r="R16">
-        <v>8527.710641219192</v>
+        <v>7018.410993357854</v>
       </c>
       <c r="S16">
-        <v>0.02719657018403883</v>
+        <v>0.01661811057609482</v>
       </c>
       <c r="T16">
-        <v>0.02719657018403883</v>
+        <v>0.01661811057609482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.910762</v>
+        <v>5.730442333333333</v>
       </c>
       <c r="H17">
-        <v>41.732286</v>
+        <v>17.191327</v>
       </c>
       <c r="I17">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="J17">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N17">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O17">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P17">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q17">
-        <v>17.57250115510133</v>
+        <v>4.019744844448</v>
       </c>
       <c r="R17">
-        <v>158.152510395912</v>
+        <v>36.177703600032</v>
       </c>
       <c r="S17">
-        <v>0.0005043799009753236</v>
+        <v>8.566113887936874E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005043799009753239</v>
+        <v>8.566113887936873E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.910762</v>
+        <v>5.730442333333333</v>
       </c>
       <c r="H18">
-        <v>41.732286</v>
+        <v>17.191327</v>
       </c>
       <c r="I18">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="J18">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.459959</v>
       </c>
       <c r="O18">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P18">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q18">
-        <v>29.95431739291933</v>
+        <v>12.33947417506589</v>
       </c>
       <c r="R18">
-        <v>269.588856536274</v>
+        <v>111.055267575593</v>
       </c>
       <c r="S18">
-        <v>0.0008597726360676938</v>
+        <v>0.0002629553496333558</v>
       </c>
       <c r="T18">
-        <v>0.0008597726360676941</v>
+        <v>0.0002629553496333557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.910762</v>
+        <v>5.730442333333333</v>
       </c>
       <c r="H19">
-        <v>41.732286</v>
+        <v>17.191327</v>
       </c>
       <c r="I19">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="J19">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N19">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O19">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P19">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q19">
-        <v>1620.608303271492</v>
+        <v>1396.405455746441</v>
       </c>
       <c r="R19">
-        <v>14585.47472944342</v>
+        <v>12567.64910171797</v>
       </c>
       <c r="S19">
-        <v>0.04651598815155398</v>
+        <v>0.02975753096414016</v>
       </c>
       <c r="T19">
-        <v>0.046515988151554</v>
+        <v>0.02975753096414015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.910762</v>
+        <v>5.730442333333333</v>
       </c>
       <c r="H20">
-        <v>41.732286</v>
+        <v>17.191327</v>
       </c>
       <c r="I20">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="J20">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N20">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O20">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P20">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q20">
-        <v>10.49361577314467</v>
+        <v>5.088781783500667</v>
       </c>
       <c r="R20">
-        <v>94.44254195830202</v>
+        <v>45.799036051506</v>
       </c>
       <c r="S20">
-        <v>0.000301196103947633</v>
+        <v>0.0001084424161113919</v>
       </c>
       <c r="T20">
-        <v>0.0003011961039476331</v>
+        <v>0.0001084424161113919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.910762</v>
+        <v>5.730442333333333</v>
       </c>
       <c r="H21">
-        <v>41.732286</v>
+        <v>17.191327</v>
       </c>
       <c r="I21">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="J21">
-        <v>0.1240145429085491</v>
+        <v>0.059818133854125</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N21">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O21">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P21">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q21">
-        <v>2642.014678800059</v>
+        <v>1389.179444370006</v>
       </c>
       <c r="R21">
-        <v>23778.13210920053</v>
+        <v>12502.61499933005</v>
       </c>
       <c r="S21">
-        <v>0.07583320611600444</v>
+        <v>0.02960354398536073</v>
       </c>
       <c r="T21">
-        <v>0.07583320611600446</v>
+        <v>0.02960354398536072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.309430666666667</v>
+        <v>1.855114</v>
       </c>
       <c r="H22">
-        <v>21.928292</v>
+        <v>5.565342</v>
       </c>
       <c r="I22">
-        <v>0.06516362676957579</v>
+        <v>0.01936490258721644</v>
       </c>
       <c r="J22">
-        <v>0.06516362676957581</v>
+        <v>0.01936490258721643</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N22">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O22">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P22">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q22">
-        <v>9.23349697400711</v>
+        <v>1.301310527808</v>
       </c>
       <c r="R22">
-        <v>83.10147276606399</v>
+        <v>11.711794750272</v>
       </c>
       <c r="S22">
-        <v>0.000265027172187931</v>
+        <v>2.773104914897982E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002650271721879311</v>
+        <v>2.773104914897982E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.309430666666667</v>
+        <v>1.855114</v>
       </c>
       <c r="H23">
-        <v>21.928292</v>
+        <v>5.565342</v>
       </c>
       <c r="I23">
-        <v>0.06516362676957579</v>
+        <v>0.01936490258721644</v>
       </c>
       <c r="J23">
-        <v>0.06516362676957581</v>
+        <v>0.01936490258721643</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.459959</v>
       </c>
       <c r="O23">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P23">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q23">
-        <v>15.73954080666978</v>
+        <v>3.994653460108668</v>
       </c>
       <c r="R23">
-        <v>141.655867260028</v>
+        <v>35.951881140978</v>
       </c>
       <c r="S23">
-        <v>0.0004517688155712851</v>
+        <v>8.512643913056856E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004517688155712852</v>
+        <v>8.512643913056854E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.309430666666667</v>
+        <v>1.855114</v>
       </c>
       <c r="H24">
-        <v>21.928292</v>
+        <v>5.565342</v>
       </c>
       <c r="I24">
-        <v>0.06516362676957579</v>
+        <v>0.01936490258721644</v>
       </c>
       <c r="J24">
-        <v>0.06516362676957581</v>
+        <v>0.01936490258721643</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N24">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O24">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P24">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q24">
-        <v>851.5510531045873</v>
+        <v>452.0578272924953</v>
       </c>
       <c r="R24">
-        <v>7663.959477941285</v>
+        <v>4068.520445632458</v>
       </c>
       <c r="S24">
-        <v>0.02444189543932043</v>
+        <v>0.009633394611773118</v>
       </c>
       <c r="T24">
-        <v>0.02444189543932044</v>
+        <v>0.009633394611773115</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.309430666666667</v>
+        <v>1.855114</v>
       </c>
       <c r="H25">
-        <v>21.928292</v>
+        <v>5.565342</v>
       </c>
       <c r="I25">
-        <v>0.06516362676957579</v>
+        <v>0.01936490258721644</v>
       </c>
       <c r="J25">
-        <v>0.06516362676957581</v>
+        <v>0.01936490258721643</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N25">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O25">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P25">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q25">
-        <v>5.513886078738222</v>
+        <v>1.647389464964</v>
       </c>
       <c r="R25">
-        <v>49.624974708644</v>
+        <v>14.826505184676</v>
       </c>
       <c r="S25">
-        <v>0.0001582639426133054</v>
+        <v>3.510602369242387E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001582639426133055</v>
+        <v>3.510602369242386E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.309430666666667</v>
+        <v>1.855114</v>
       </c>
       <c r="H26">
-        <v>21.928292</v>
+        <v>5.565342</v>
       </c>
       <c r="I26">
-        <v>0.06516362676957579</v>
+        <v>0.01936490258721644</v>
       </c>
       <c r="J26">
-        <v>0.06516362676957581</v>
+        <v>0.01936490258721643</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N26">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O26">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P26">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q26">
-        <v>1388.250558452846</v>
+        <v>449.7185532733487</v>
       </c>
       <c r="R26">
-        <v>12494.25502607562</v>
+        <v>4047.466979460138</v>
       </c>
       <c r="S26">
-        <v>0.03984667139988284</v>
+        <v>0.009583544463471346</v>
       </c>
       <c r="T26">
-        <v>0.03984667139988285</v>
+        <v>0.009583544463471342</v>
       </c>
     </row>
   </sheetData>
